--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangguoliang3909/workFiles/旅居小程序/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenWorkspace\Goalone\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1BF90C68-684A-4C8A-AC26-C394B12BC2A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26160" yWindow="340" windowWidth="37280" windowHeight="20680" tabRatio="500"/>
+    <workbookView xWindow="26160" yWindow="345" windowWidth="37275" windowHeight="20685" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -60,12 +62,17 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>1\登录github账号
+2\上传工作计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,11 +124,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -131,6 +143,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -398,16 +413,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2FA788-CA7B-425E-99E6-FAAF6C9EFA53}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="11" style="3"/>
+    <col min="5" max="5" width="11" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,10 +454,25 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>43300</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>